--- a/i01py_excel/example.xlsx
+++ b/i01py_excel/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abel/Downloads/AbelProject/PythonProjectLearn/i01py_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF964A1E-95BD-B64C-AA4E-EDD03DE0E89A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8633BA61-3862-6B49-A887-A1164F594C43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16100" xr2:uid="{485F4D96-2768-CF42-9499-268119198FE8}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>编号</t>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,15 +395,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B355FBA4-5DAE-DA49-BAB9-7A544FEF1C18}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
